--- a/StructureDefinition-forced-form-oder.xlsx
+++ b/StructureDefinition-forced-form-oder.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/forced-form-oder</t>
+    <t>http://science37.com/fhir/StructureDefinition/forced-form-oder</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>forcedOderFormConfig</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/force-form-order}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/force-form-order}
 </t>
   </si>
   <si>
